--- a/Hello_World.xlsx
+++ b/Hello_World.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Power BI personal\power-bi-lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maruf\Desktop\power-bi-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498EA727-5747-406F-A0F8-84EBEEA77C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71930A4-E8D0-4534-B96E-2AF730159DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>GITHUB USERNAME AND EMAIL</t>
-  </si>
-  <si>
     <t xml:space="preserve">User </t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>https://github.com/maruf-hossen45</t>
+  </si>
+  <si>
+    <t>Hello Git People</t>
   </si>
 </sst>
 </file>
@@ -120,12 +120,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,41 +421,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Hello_World.xlsx
+++ b/Hello_World.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maruf\Desktop\power-bi-lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\git hub\power-bi-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71930A4-E8D0-4534-B96E-2AF730159DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF59AA-B980-46C7-A4C2-E7323F5E08E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>https://github.com/maruf-hossen45</t>
   </si>
   <si>
-    <t>Hello Git People</t>
+    <t xml:space="preserve">Hello world </t>
   </si>
 </sst>
 </file>
@@ -413,26 +413,26 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
